--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Efna5-Ephb1.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Efna5-Ephb1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,6 +79,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>Efna5</t>
   </si>
   <si>
@@ -86,9 +89,6 @@
   </si>
   <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>sCs</t>
   </si>
 </sst>
 </file>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T3"/>
+  <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +519,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.97793667853582</v>
+        <v>2.030023666666667</v>
       </c>
       <c r="H2">
-        <v>1.97793667853582</v>
+        <v>6.090071</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.8776223887075381</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.8776223887075382</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.47708822986691</v>
+        <v>2.211866666666667</v>
       </c>
       <c r="N2">
-        <v>1.47708822986691</v>
+        <v>6.6356</v>
       </c>
       <c r="O2">
-        <v>0.574583468364714</v>
+        <v>0.4811217919111272</v>
       </c>
       <c r="P2">
-        <v>0.574583468364714</v>
+        <v>0.4811217919111272</v>
       </c>
       <c r="Q2">
-        <v>2.921586987287309</v>
+        <v>4.490141680844445</v>
       </c>
       <c r="R2">
-        <v>2.921586987287309</v>
+        <v>40.4112751276</v>
       </c>
       <c r="S2">
-        <v>0.574583468364714</v>
+        <v>0.4222432562762945</v>
       </c>
       <c r="T2">
-        <v>0.574583468364714</v>
+        <v>0.4222432562762946</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,61 +581,185 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" t="s">
         <v>21</v>
       </c>
-      <c r="C3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" t="s">
-        <v>24</v>
-      </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.97793667853582</v>
+        <v>2.030023666666667</v>
       </c>
       <c r="H3">
-        <v>1.97793667853582</v>
+        <v>6.090071</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.8776223887075381</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.8776223887075382</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.09362309614941</v>
+        <v>2.385444666666666</v>
       </c>
       <c r="N3">
-        <v>1.09362309614941</v>
+        <v>7.156333999999999</v>
       </c>
       <c r="O3">
-        <v>0.4254165316352861</v>
+        <v>0.5188782080888727</v>
       </c>
       <c r="P3">
-        <v>0.4254165316352861</v>
+        <v>0.5188782080888727</v>
       </c>
       <c r="Q3">
-        <v>2.163117234367824</v>
+        <v>4.84250912885711</v>
       </c>
       <c r="R3">
-        <v>2.163117234367824</v>
+        <v>43.58258215971399</v>
       </c>
       <c r="S3">
-        <v>0.4254165316352861</v>
+        <v>0.4553791324312435</v>
       </c>
       <c r="T3">
-        <v>0.4254165316352861</v>
+        <v>0.4553791324312436</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G4">
+        <v>0.283071</v>
+      </c>
+      <c r="H4">
+        <v>0.849213</v>
+      </c>
+      <c r="I4">
+        <v>0.1223776112924619</v>
+      </c>
+      <c r="J4">
+        <v>0.1223776112924619</v>
+      </c>
+      <c r="K4">
+        <v>3</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>2.211866666666667</v>
+      </c>
+      <c r="N4">
+        <v>6.6356</v>
+      </c>
+      <c r="O4">
+        <v>0.4811217919111272</v>
+      </c>
+      <c r="P4">
+        <v>0.4811217919111272</v>
+      </c>
+      <c r="Q4">
+        <v>0.6261153092000001</v>
+      </c>
+      <c r="R4">
+        <v>5.6350377828</v>
+      </c>
+      <c r="S4">
+        <v>0.05887853563483265</v>
+      </c>
+      <c r="T4">
+        <v>0.05887853563483265</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G5">
+        <v>0.283071</v>
+      </c>
+      <c r="H5">
+        <v>0.849213</v>
+      </c>
+      <c r="I5">
+        <v>0.1223776112924619</v>
+      </c>
+      <c r="J5">
+        <v>0.1223776112924619</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>2.385444666666666</v>
+      </c>
+      <c r="N5">
+        <v>7.156333999999999</v>
+      </c>
+      <c r="O5">
+        <v>0.5188782080888727</v>
+      </c>
+      <c r="P5">
+        <v>0.5188782080888727</v>
+      </c>
+      <c r="Q5">
+        <v>0.675250207238</v>
+      </c>
+      <c r="R5">
+        <v>6.077251865141999</v>
+      </c>
+      <c r="S5">
+        <v>0.06349907565762922</v>
+      </c>
+      <c r="T5">
+        <v>0.06349907565762922</v>
       </c>
     </row>
   </sheetData>
